--- a/biology/Botanique/Allium_taquetii/Allium_taquetii.xlsx
+++ b/biology/Botanique/Allium_taquetii/Allium_taquetii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium taquetii est une espèce de plantes à fleurs du genre Allium et de la famille des Amaryllidaceae originaire de la péninsule sud-coréenne et de l'île de Jeju. En coréen, on l'appelle ciboulette Halla (한라부추) car elle pousse sur les pentes du Mont Halla, le volcan bouclier qu'est l'île de Jeju. Certaines sources le traitent comme un synonyme de Allium thunbergii[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium taquetii est une espèce de plantes à fleurs du genre Allium et de la famille des Amaryllidaceae originaire de la péninsule sud-coréenne et de l'île de Jeju. En coréen, on l'appelle ciboulette Halla (한라부추) car elle pousse sur les pentes du Mont Halla, le volcan bouclier qu'est l'île de Jeju. Certaines sources le traitent comme un synonyme de Allium thunbergii.
 En Corée, Allium taquetii est cultivé pour son intérêt floral, et ses tiges sont parfois consommées comme des aromatiques telles que les ciboulettes et les cébettes.
 </t>
         </is>
